--- a/src/zojax/filefield/tests/test.xlsx
+++ b/src/zojax/filefield/tests/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="310" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="223" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,17 +57,20 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="11"/>
@@ -83,6 +86,7 @@
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00000000"/>
@@ -90,6 +94,7 @@
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00000000"/>
@@ -97,6 +102,7 @@
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="9"/>
@@ -118,6 +124,7 @@
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="9"/>
     </font>
@@ -130,6 +137,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="11"/>
     </font>
@@ -534,18 +542,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1410120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:colOff>1274040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +568,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1425600" y="10080"/>
-          <a:ext cx="1396440" cy="1288440"/>
+          <a:off x="1299600" y="2078640"/>
+          <a:ext cx="1253520" cy="1288440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,14 +589,17 @@
   <dimension ref="A1:F403"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
       <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="5.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.9019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.01960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.44313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="5.93725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.6274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.06274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.48235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.56862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33.75" outlineLevel="0" r="1">
@@ -3840,9 +3851,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3862,9 +3878,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
